--- a/modulo_odoo/Informes/Informexls/Informe_Ingreso008.xlsx
+++ b/modulo_odoo/Informes/Informexls/Informe_Ingreso008.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Ingreso Mercancia 008</t>
   </si>
@@ -52,6 +52,183 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>PO00234</t>
+  </si>
+  <si>
+    <t>CP-000505</t>
+  </si>
+  <si>
+    <t>008\IN\00263</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>FUMIGADORA ASIA PRESION CONSTANTE X 2LT</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>2022-05-03 12:49:31</t>
+  </si>
+  <si>
+    <t>MACETA COLORMAT AZUL REDONDA  17 CMS</t>
+  </si>
+  <si>
+    <t>FUMIGADORA ASIA PRESION INTERNA 8 LTS</t>
+  </si>
+  <si>
+    <t>PO00031</t>
+  </si>
+  <si>
+    <t>CP-000506</t>
+  </si>
+  <si>
+    <t>008\IN\00014</t>
+  </si>
+  <si>
+    <t>BANDEJA GERMINADORA PORTATIL x 16 CAV. REF. A-JP16</t>
+  </si>
+  <si>
+    <t>2022-05-03 20:00:33</t>
+  </si>
+  <si>
+    <t>BANDEJA GERMINADORA 162 CAVIDADES A-BA162</t>
+  </si>
+  <si>
+    <t>PO00148</t>
+  </si>
+  <si>
+    <t>CP-000508</t>
+  </si>
+  <si>
+    <t>008\IN\00190</t>
+  </si>
+  <si>
+    <t>PPO001035</t>
+  </si>
+  <si>
+    <t>TELEVISOR 55" SMART TV 4K</t>
+  </si>
+  <si>
+    <t>2022-05-03 21:47:05</t>
+  </si>
+  <si>
+    <t>PO00217</t>
+  </si>
+  <si>
+    <t>CP-000509</t>
+  </si>
+  <si>
+    <t>008\IN\00258</t>
+  </si>
+  <si>
+    <t>BIS000280</t>
+  </si>
+  <si>
+    <t>AMINO IMPULSOR 30 TAB</t>
+  </si>
+  <si>
+    <t>2022-05-03 21:54:55</t>
+  </si>
+  <si>
+    <t>PO00249</t>
+  </si>
+  <si>
+    <t>CP-000520</t>
+  </si>
+  <si>
+    <t>008\IN\00275</t>
+  </si>
+  <si>
+    <t>LCA000025</t>
+  </si>
+  <si>
+    <t>RATAQUILL 20 GR **</t>
+  </si>
+  <si>
+    <t>2022-05-17 17:01:23</t>
+  </si>
+  <si>
+    <t>PO00253</t>
+  </si>
+  <si>
+    <t>CP-000522</t>
+  </si>
+  <si>
+    <t>008\IN\00281</t>
+  </si>
+  <si>
+    <t>EQUIPO VENOCLISES MEDICALES MACROGOTEO 20X1 1/2</t>
+  </si>
+  <si>
+    <t>2022-05-17 22:15:19</t>
+  </si>
+  <si>
+    <t>PO00247</t>
+  </si>
+  <si>
+    <t>CP-000516</t>
+  </si>
+  <si>
+    <t>008\IN\00269</t>
+  </si>
+  <si>
+    <t>LCA000023</t>
+  </si>
+  <si>
+    <t>RATAQUILL 10 GR **</t>
+  </si>
+  <si>
+    <t>2022-05-17 15:53:12</t>
+  </si>
+  <si>
+    <t>PO00242</t>
+  </si>
+  <si>
+    <t>CP-000518</t>
+  </si>
+  <si>
+    <t>008\IN\00267</t>
+  </si>
+  <si>
+    <t>HOL000053</t>
+  </si>
+  <si>
+    <t>CONDROTON 10 ML</t>
+  </si>
+  <si>
+    <t>2022-05-17 16:19:11</t>
+  </si>
+  <si>
+    <t>PO00250</t>
+  </si>
+  <si>
+    <t>CP-000521</t>
+  </si>
+  <si>
+    <t>008\IN\00277</t>
+  </si>
+  <si>
+    <t>EUKANUBA ADULTO CH RIC &amp; VG WET 0,375 KG</t>
+  </si>
+  <si>
+    <t>2022-05-17 17:10:47</t>
+  </si>
+  <si>
+    <t>PO00254</t>
+  </si>
+  <si>
+    <t>CP-000524</t>
+  </si>
+  <si>
+    <t>008\IN\00282</t>
+  </si>
+  <si>
+    <t>2022-05-17 22:33:44</t>
   </si>
 </sst>
 </file>
@@ -405,7 +582,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,17 +659,39 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>308000004</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>19370</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -510,17 +709,39 @@
       <c r="Z3"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>308000009</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>1730</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -538,17 +759,39 @@
       <c r="Z4"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>308000006</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>61260</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -564,6 +807,534 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>308000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>4800</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>340000002</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>5450</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>1730252</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>40200</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>3523</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>1000005</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>6000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>521</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>1289</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>61688</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>909000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>11636</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>1000005</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>6000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
